--- a/data/trans_orig/P1414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8502</v>
+        <v>8482</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003264183305724933</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00103385788950793</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008723647307733421</v>
+        <v>0.008702976847768537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -764,19 +764,19 @@
         <v>51451</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38885</v>
+        <v>38681</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67893</v>
+        <v>67687</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03848736441119271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0290873263899252</v>
+        <v>0.02893476114035158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05078649969851376</v>
+        <v>0.05063262666918482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -785,19 +785,19 @@
         <v>54632</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40393</v>
+        <v>40676</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71119</v>
+        <v>68951</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02363535104226865</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01747488276837665</v>
+        <v>0.01759729845811511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0307679547603782</v>
+        <v>0.02983004603155908</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>971462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>966141</v>
+        <v>966161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>973635</v>
+        <v>974643</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.996735816694275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9912763526922665</v>
+        <v>0.9912970231522316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9989661421104921</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1197</v>
@@ -835,19 +835,19 @@
         <v>1285379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1268937</v>
+        <v>1269143</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1297945</v>
+        <v>1298149</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9615126355888073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9492135003014861</v>
+        <v>0.9493673733308146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9709126736100747</v>
+        <v>0.9710652388596483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2102</v>
@@ -856,19 +856,19 @@
         <v>2256841</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2240354</v>
+        <v>2242522</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2271080</v>
+        <v>2270797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9763646489577313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9692320452396218</v>
+        <v>0.9701699539684409</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9825251172316234</v>
+        <v>0.9824027015418848</v>
       </c>
     </row>
     <row r="6">
@@ -963,16 +963,16 @@
         <v>1045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10204</v>
+        <v>10702</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002139808654390485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.000532030033599238</v>
+        <v>0.0005318375153208043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005195682642491848</v>
+        <v>0.005449309799758638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -981,19 +981,19 @@
         <v>35736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23787</v>
+        <v>26153</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49116</v>
+        <v>51031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02036737813895804</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01355680955375548</v>
+        <v>0.01490561439194049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02799307694599301</v>
+        <v>0.02908444664124061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -1002,19 +1002,19 @@
         <v>39939</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28282</v>
+        <v>28978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53792</v>
+        <v>56136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01074046020308092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007605784894021315</v>
+        <v>0.007792956783798728</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01446579546840691</v>
+        <v>0.01509610530880911</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>1959755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1953753</v>
+        <v>1953255</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1962912</v>
@@ -1040,10 +1040,10 @@
         <v>0.9978601913456095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9948043173575083</v>
+        <v>0.9945506902002416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9994679699664007</v>
+        <v>0.9994681624846792</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1600</v>
@@ -1052,19 +1052,19 @@
         <v>1718856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1705476</v>
+        <v>1703561</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1730805</v>
+        <v>1728439</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9796326218610419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.972006923054007</v>
+        <v>0.9709155533587595</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9864431904462446</v>
+        <v>0.9850943856080596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3452</v>
@@ -1073,19 +1073,19 @@
         <v>3678610</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3664757</v>
+        <v>3662413</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3690267</v>
+        <v>3689571</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9892595397969191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.985534204531593</v>
+        <v>0.9849038946911908</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9923942151059786</v>
+        <v>0.9922070432162012</v>
       </c>
     </row>
     <row r="9">
@@ -1190,19 +1190,19 @@
         <v>5603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1509</v>
+        <v>1030</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13012</v>
+        <v>13516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01221716141510233</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003289339255671695</v>
+        <v>0.002245186500043402</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02837229738426868</v>
+        <v>0.02947034002987444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1211,19 +1211,19 @@
         <v>5603</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14159</v>
+        <v>13775</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005962008248190335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001090805547892029</v>
+        <v>0.001101756262272715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.015066204815866</v>
+        <v>0.01465761542538698</v>
       </c>
     </row>
     <row r="11">
@@ -1253,19 +1253,19 @@
         <v>453028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>445619</v>
+        <v>445115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457122</v>
+        <v>457601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9877828385848977</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9716277026157313</v>
+        <v>0.9705296599701256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9967106607443259</v>
+        <v>0.9977548134999565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>846</v>
@@ -1274,19 +1274,19 @@
         <v>934210</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>925654</v>
+        <v>926038</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>938788</v>
+        <v>938778</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9940379917518096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9849337951841337</v>
+        <v>0.9853423845746129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9989091944521079</v>
+        <v>0.9988982437377272</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>7384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3224</v>
+        <v>3181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15806</v>
+        <v>15639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002159174712129883</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0009427790055267193</v>
+        <v>0.0009302319403215818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0046219997243087</v>
+        <v>0.004573107654286273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -1399,19 +1399,19 @@
         <v>92791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74182</v>
+        <v>73751</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112636</v>
+        <v>114534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02613782643612982</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02089595352279931</v>
+        <v>0.02077451868720329</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03172807426080332</v>
+        <v>0.0322626671116721</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -1420,19 +1420,19 @@
         <v>100175</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79531</v>
+        <v>80967</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119974</v>
+        <v>121399</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01437258963809217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01141069265711185</v>
+        <v>0.01161677390414495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01721326177914747</v>
+        <v>0.0174177043843157</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>3412398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3403976</v>
+        <v>3404143</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3416558</v>
+        <v>3416601</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9978408252878701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.995378000275691</v>
+        <v>0.9954268923457138</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9990572209944732</v>
+        <v>0.9990697680596785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3205</v>
@@ -1470,19 +1470,19 @@
         <v>3457262</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3437417</v>
+        <v>3435519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3475871</v>
+        <v>3476302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9738621735638702</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9682719257391967</v>
+        <v>0.9677373328883281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9791040464772011</v>
+        <v>0.9792254813127967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6400</v>
@@ -1491,19 +1491,19 @@
         <v>6869660</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6849861</v>
+        <v>6848436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6890304</v>
+        <v>6888868</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9856274103619078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9827867382208526</v>
+        <v>0.9825822956156843</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9885893073428881</v>
+        <v>0.988383226095855</v>
       </c>
     </row>
     <row r="15">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001311056066719867</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006574106784733461</v>
+        <v>0.006575185340422935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -1855,19 +1855,19 @@
         <v>50833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38047</v>
+        <v>37818</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66921</v>
+        <v>67382</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05110585324640246</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03825092427905479</v>
+        <v>0.03802133591231177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06728005425099103</v>
+        <v>0.06774362464546889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -1876,19 +1876,19 @@
         <v>51822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39765</v>
+        <v>37756</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68489</v>
+        <v>66676</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02962935494449357</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02273549709870605</v>
+        <v>0.02158706045804753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03915860033402817</v>
+        <v>0.03812200192092376</v>
       </c>
     </row>
     <row r="5">
@@ -1905,7 +1905,7 @@
         <v>753358</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>749388</v>
+        <v>749387</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>754347</v>
@@ -1914,7 +1914,7 @@
         <v>0.9986889439332801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9934258932152665</v>
+        <v>0.9934248146595771</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1926,19 +1926,19 @@
         <v>943827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>927739</v>
+        <v>927278</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>956613</v>
+        <v>956842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9488941467535975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9327199457490093</v>
+        <v>0.9322563753545311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9617490757209454</v>
+        <v>0.9619786640876882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1606</v>
@@ -1947,19 +1947,19 @@
         <v>1697185</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1680518</v>
+        <v>1682331</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1709242</v>
+        <v>1711251</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9703706450555064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9608413996659716</v>
+        <v>0.9618779980790761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9772645029012936</v>
+        <v>0.9784129395419523</v>
       </c>
     </row>
     <row r="6">
@@ -2051,19 +2051,19 @@
         <v>10450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5140</v>
+        <v>5314</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19283</v>
+        <v>18644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005032955884071328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002475561750939174</v>
+        <v>0.002559391003136912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009286629362766249</v>
+        <v>0.008978879518078627</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -2072,19 +2072,19 @@
         <v>65625</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50722</v>
+        <v>50071</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85045</v>
+        <v>83028</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03300579814263724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02551029882593489</v>
+        <v>0.02518288360379067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04277271356076143</v>
+        <v>0.04175815047512735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -2093,19 +2093,19 @@
         <v>76076</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60131</v>
+        <v>59711</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96573</v>
+        <v>94705</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01871628033870655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01479350957691717</v>
+        <v>0.01469021124346668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0237590598832686</v>
+        <v>0.02329938364474806</v>
       </c>
     </row>
     <row r="8">
@@ -2122,19 +2122,19 @@
         <v>2065935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2057102</v>
+        <v>2057741</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2071245</v>
+        <v>2071071</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9949670441159286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9907133706372331</v>
+        <v>0.9910211204819213</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975244382490607</v>
+        <v>0.9974406089968632</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1848</v>
@@ -2143,19 +2143,19 @@
         <v>1922675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1903255</v>
+        <v>1905272</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1937578</v>
+        <v>1938229</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9669942018573627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9572272864392386</v>
+        <v>0.9582418495248726</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9744897011740652</v>
+        <v>0.9748171163962092</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3790</v>
@@ -2164,19 +2164,19 @@
         <v>3988609</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3968112</v>
+        <v>3969980</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4004554</v>
+        <v>4004974</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9812837196612935</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9762409401167315</v>
+        <v>0.976700616355252</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9852064904230829</v>
+        <v>0.9853097887565333</v>
       </c>
     </row>
     <row r="9">
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8803</v>
+        <v>9335</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004769672647765122</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01609655209399161</v>
+        <v>0.01706887623180243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2292,16 +2292,16 @@
         <v>4121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16014</v>
+        <v>16257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01567861230440504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007504623871244073</v>
+        <v>0.007503975595673223</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02916233819938647</v>
+        <v>0.02960403249524741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -2310,19 +2310,19 @@
         <v>11218</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5480</v>
+        <v>5553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20861</v>
+        <v>19264</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01023536041226684</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005000113807683327</v>
+        <v>0.005066147090653356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0190335439395298</v>
+        <v>0.01757616205327805</v>
       </c>
     </row>
     <row r="11">
@@ -2339,7 +2339,7 @@
         <v>544278</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538083</v>
+        <v>537551</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -2348,7 +2348,7 @@
         <v>0.9952303273522348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9839034479060083</v>
+        <v>0.9829311237681976</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>540530</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>533126</v>
+        <v>532883</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>545019</v>
@@ -2369,10 +2369,10 @@
         <v>0.984321387695595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9708376618006136</v>
+        <v>0.9703959675047524</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9924953761287559</v>
+        <v>0.9924960244043267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1017</v>
@@ -2381,19 +2381,19 @@
         <v>1084809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1075166</v>
+        <v>1076763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1090547</v>
+        <v>1090474</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9897646395877332</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9809664560604701</v>
+        <v>0.9824238379467219</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9949998861923165</v>
+        <v>0.9949338529093465</v>
       </c>
     </row>
     <row r="12">
@@ -2485,19 +2485,19 @@
         <v>14048</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8176</v>
+        <v>7361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23757</v>
+        <v>22819</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004159088791079831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002420713625583156</v>
+        <v>0.002179407992585068</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007033610767012666</v>
+        <v>0.006756006574258552</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -2506,19 +2506,19 @@
         <v>125068</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104413</v>
+        <v>104614</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150062</v>
+        <v>148758</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03540899889656318</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02956111330985895</v>
+        <v>0.02961812552530698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0424851069803376</v>
+        <v>0.04211596726903154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -2527,19 +2527,19 @@
         <v>139116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>114930</v>
+        <v>116940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165364</v>
+        <v>165575</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02013337564010638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01663316284237379</v>
+        <v>0.01692395367661341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02393214150283556</v>
+        <v>0.02396260364596197</v>
       </c>
     </row>
     <row r="14">
@@ -2556,19 +2556,19 @@
         <v>3363570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3353861</v>
+        <v>3354799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3369442</v>
+        <v>3370257</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9958409112089202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9929663892329873</v>
+        <v>0.9932439934257414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975792863744168</v>
+        <v>0.997820592007415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3211</v>
@@ -2577,19 +2577,19 @@
         <v>3407032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3382038</v>
+        <v>3383342</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3427687</v>
+        <v>3427486</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9645910011034369</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9575148930196624</v>
+        <v>0.9578840327309684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.970438886690141</v>
+        <v>0.9703818744746929</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6413</v>
@@ -2598,19 +2598,19 @@
         <v>6770602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6744354</v>
+        <v>6744143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6794788</v>
+        <v>6792778</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9798666243598936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.976067858497165</v>
+        <v>0.9760373963540382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9833668371576266</v>
+        <v>0.9830760463233866</v>
       </c>
     </row>
     <row r="15">
@@ -2941,19 +2941,19 @@
         <v>4977</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1753</v>
+        <v>1319</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13163</v>
+        <v>12244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008667562077542917</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003053271795231845</v>
+        <v>0.002297153892226927</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02292293525078822</v>
+        <v>0.02132223600968169</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -2962,19 +2962,19 @@
         <v>62314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52239</v>
+        <v>50626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75641</v>
+        <v>75692</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07632395104484979</v>
+        <v>0.07632395104484978</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06398453897269303</v>
+        <v>0.06200807982823763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.092647257948746</v>
+        <v>0.09271022166049632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -2983,19 +2983,19 @@
         <v>67291</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55892</v>
+        <v>55781</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80366</v>
+        <v>81600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04838728172440748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04019026205433144</v>
+        <v>0.04011066465041899</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05778922264476367</v>
+        <v>0.0586765747792898</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>569260</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>561074</v>
+        <v>561993</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>572484</v>
+        <v>572918</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9913324379224567</v>
+        <v>0.991332437922457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9770770647492115</v>
+        <v>0.9786777639903184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.996946728204768</v>
+        <v>0.9977028461077728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1313</v>
@@ -3033,19 +3033,19 @@
         <v>754123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>740796</v>
+        <v>740745</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>764198</v>
+        <v>765811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9236760489551503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9073527420512538</v>
+        <v>0.9072897783395039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9360154610273064</v>
+        <v>0.9379919201717624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1995</v>
@@ -3054,19 +3054,19 @@
         <v>1323384</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1310309</v>
+        <v>1309075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1334783</v>
+        <v>1334894</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9516127182755925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9422107773552365</v>
+        <v>0.9413234252207104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9598097379456686</v>
+        <v>0.9598893353495811</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>7416</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3602</v>
+        <v>3529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14272</v>
+        <v>14818</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.003328521425360601</v>
+        <v>0.003328521425360602</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001616585651993889</v>
+        <v>0.001583793210577164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006405741267422003</v>
+        <v>0.006650872375371004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -3179,19 +3179,19 @@
         <v>77589</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64714</v>
+        <v>65249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91620</v>
+        <v>92080</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03590083801370242</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02994357312284715</v>
+        <v>0.03019124612496884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04239349289959874</v>
+        <v>0.04260624205538437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -3200,19 +3200,19 @@
         <v>85004</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71468</v>
+        <v>72168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101589</v>
+        <v>100239</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0193670478851986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01628301843148979</v>
+        <v>0.01644249722386162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02314556434153808</v>
+        <v>0.02283797104244487</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>2220511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2213655</v>
+        <v>2213109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2224325</v>
+        <v>2224398</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9966714785746394</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9935942587325783</v>
+        <v>0.993349127624629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9983834143480063</v>
+        <v>0.998416206789423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2778</v>
@@ -3250,19 +3250,19 @@
         <v>2083601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2069570</v>
+        <v>2069110</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2096476</v>
+        <v>2095941</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9640991619862975</v>
+        <v>0.9640991619862976</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.957606507100402</v>
+        <v>0.9573937579446158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9700564268771537</v>
+        <v>0.9698087538750311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4759</v>
@@ -3271,19 +3271,19 @@
         <v>4304113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4287528</v>
+        <v>4288878</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4317649</v>
+        <v>4316949</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9806329521148014</v>
+        <v>0.9806329521148012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9768544356584622</v>
+        <v>0.9771620289575552</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9837169815685103</v>
+        <v>0.9835575027761385</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>2374</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7081</v>
+        <v>7073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003339329856926803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0008333785011116675</v>
+        <v>0.0008186692065797343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009958576464453453</v>
+        <v>0.009948279329448081</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3396,19 +3396,19 @@
         <v>14371</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8595</v>
+        <v>9166</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23675</v>
+        <v>23008</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01962993559524723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01174034730104225</v>
+        <v>0.01252103727349159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03233922064667377</v>
+        <v>0.03142872937080399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3417,19 +3417,19 @@
         <v>16745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10733</v>
+        <v>10763</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25930</v>
+        <v>24659</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0116036160039996</v>
+        <v>0.01160361600399961</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007437525221473847</v>
+        <v>0.007458625789945895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01796869315380639</v>
+        <v>0.0170880214031787</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>708626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>703919</v>
+        <v>703927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>710407</v>
+        <v>710418</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.996660670143073</v>
+        <v>0.9966606701430732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9900414235355466</v>
+        <v>0.9900517206705519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9991666214988882</v>
+        <v>0.9991813307934202</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>978</v>
@@ -3467,19 +3467,19 @@
         <v>717709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>708405</v>
+        <v>709072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>723485</v>
+        <v>722914</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9803700644047527</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9676607793533264</v>
+        <v>0.968571270629196</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9882596526989578</v>
+        <v>0.9874789627265084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1655</v>
@@ -3488,19 +3488,19 @@
         <v>1426335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1417150</v>
+        <v>1418421</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1432347</v>
+        <v>1432317</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9883963839960005</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.982031306846194</v>
+        <v>0.9829119785968211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9925624747785264</v>
+        <v>0.9925413742100542</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>14767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8116</v>
+        <v>7740</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23514</v>
+        <v>23996</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.004203391190403606</v>
+        <v>0.004203391190403607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002310071514055004</v>
+        <v>0.002203251000585075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006692980638831948</v>
+        <v>0.006830205720560713</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>255</v>
@@ -3613,19 +3613,19 @@
         <v>154273</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137753</v>
+        <v>136025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174347</v>
+        <v>173838</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04158628488152387</v>
+        <v>0.04158628488152388</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03713302095305968</v>
+        <v>0.03666738866328333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04699747348336634</v>
+        <v>0.046860267670396</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>271</v>
@@ -3634,19 +3634,19 @@
         <v>169040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148266</v>
+        <v>148141</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189242</v>
+        <v>188642</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02340345572878028</v>
+        <v>0.02340345572878027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02052731697054566</v>
+        <v>0.02051001130725308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02620038641389347</v>
+        <v>0.02611733989630093</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>3498397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3489650</v>
+        <v>3489168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3505048</v>
+        <v>3505424</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9957966088095963</v>
+        <v>0.9957966088095965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9933070193611682</v>
+        <v>0.9931697942794394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.997689928485945</v>
+        <v>0.9977967489994147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5069</v>
@@ -3684,19 +3684,19 @@
         <v>3555434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3535360</v>
+        <v>3535869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3571954</v>
+        <v>3573682</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.958413715118476</v>
+        <v>0.9584137151184761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9530025265166339</v>
+        <v>0.953139732329604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9628669790469405</v>
+        <v>0.9633326113367168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8409</v>
@@ -3705,19 +3705,19 @@
         <v>7053832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7033630</v>
+        <v>7034230</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7074606</v>
+        <v>7074731</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9765965442712199</v>
+        <v>0.9765965442712198</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9737996135861067</v>
+        <v>0.9738826601036991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.979472683029455</v>
+        <v>0.9794899886927467</v>
       </c>
     </row>
     <row r="15">
